--- a/biology/Zoologie/Acamptus/Acamptus.xlsx
+++ b/biology/Zoologie/Acamptus/Acamptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyphostethus, Pseudacamptus
 Acamptus est un genre d'insectes coléoptères  appartenant à la famille des Curculionidae.
@@ -512,12 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Acamptus est décrit par l'entomologiste américain John Lawrence LeConte (1825-1883) en 1876.
-Synonymes
-Glyphostethus Marshall, 1921
-Pseudacamptus Champion, 1909</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acamptus est décrit par l'entomologiste américain John Lawrence LeConte (1825-1883) en 1876.
+</t>
         </is>
       </c>
     </row>
@@ -542,12 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Glyphostethus Marshall, 1921
+Pseudacamptus Champion, 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acamptus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acamptus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 juin 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 juin 2021) :
 Acamptus cancellatus Zimmerman, 1974
 Acamptus echinus Casey, 1892
 Acamptus interstitialis Hustache, 1936
@@ -556,7 +607,7 @@
 Acamptus rigidus LeConte, 1876
 Acamptus texanus Sleeper, 1954
 Acamptus verrucosus Voss, 1947
-Selon ITIS      (30 août 2014)[2] :
+Selon ITIS      (30 août 2014) :
 Acamptus echinus Casey, 1892
 Acamptus rigidus LeConte, 1876
 Acamptus texanus (Sleeper, 1954)</t>
